--- a/Codemig/AMR_Model/HEx_Cold.xlsx
+++ b/Codemig/AMR_Model/HEx_Cold.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Documents\GitHub\Jupyter\Codemig\AMR_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6352B763-EB95-4D23-B5EF-CE50B0669880}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D38687-122A-4661-8B73-88CA2152344C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,12 +30,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -50,8 +56,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -67,6 +74,956 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$B$532:$B$542</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.3952813310145222E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0665774265659649E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5971916615576229E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9619595815321955E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8065788885225214E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0269760275236033E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4508227303412751E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.407334494871129E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1148316811808123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11281108154970471</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1048650921441913</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$C$532:$C$542</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>44.432017440607403</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.308276403982028</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.29182789123719</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.180429976980747</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.207796781450071</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92.652243847794296</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66.096067877053926</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.618075277927773</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>127.56439549651451</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>115.1209776936353</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>109.2983512883972</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-25F9-478C-AEE0-1D0D66BCBE0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="124689216"/>
+        <c:axId val="376124720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="124689216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="376124720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="376124720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="124689216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>531</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>545</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBBFB6A6-A00A-4ED7-BDF5-CEBB54DAD181}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -390,10 +1347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1940"/>
+  <dimension ref="A1:O1940"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1410" workbookViewId="0">
-      <selection activeCell="P1435" sqref="P1435"/>
+    <sheetView tabSelected="1" topLeftCell="A528" workbookViewId="0">
+      <selection activeCell="Q549" sqref="Q549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15797,322 +16754,322 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A532">
+    <row r="532" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A532" s="1">
         <v>423.33333333333348</v>
       </c>
-      <c r="B532">
+      <c r="B532" s="1">
         <v>4.3952813310145222E-2</v>
       </c>
-      <c r="C532">
+      <c r="C532" s="1">
         <v>44.432017440607403</v>
       </c>
-      <c r="D532">
+      <c r="D532" s="1">
         <v>42.561539212102588</v>
       </c>
-      <c r="E532">
+      <c r="E532" s="1">
         <v>1.8704782285048061</v>
       </c>
-      <c r="F532">
-        <v>5.0800000000000003E-3</v>
-      </c>
-      <c r="G532">
+      <c r="F532" s="1">
+        <v>5.0800000000000003E-3</v>
+      </c>
+      <c r="G532" s="1">
         <v>1</v>
       </c>
-      <c r="H532">
-        <v>2</v>
-      </c>
-      <c r="I532">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A533">
+      <c r="H532" s="1">
+        <v>2</v>
+      </c>
+      <c r="I532" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A533" s="1">
         <v>423.33333333333348</v>
       </c>
-      <c r="B533">
+      <c r="B533" s="1">
         <v>4.0665774265659649E-2</v>
       </c>
-      <c r="C533">
+      <c r="C533" s="1">
         <v>40.308276403982028</v>
       </c>
-      <c r="D533">
+      <c r="D533" s="1">
         <v>38.437798175477219</v>
       </c>
-      <c r="E533">
+      <c r="E533" s="1">
         <v>1.8704782285048061</v>
       </c>
-      <c r="F533">
-        <v>6.3E-3</v>
-      </c>
-      <c r="G533">
+      <c r="F533" s="1">
+        <v>6.3E-3</v>
+      </c>
+      <c r="G533" s="1">
         <v>1</v>
       </c>
-      <c r="H533">
-        <v>2</v>
-      </c>
-      <c r="I533">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A534">
+      <c r="H533" s="1">
+        <v>2</v>
+      </c>
+      <c r="I533" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A534" s="1">
         <v>423.33333333333348</v>
       </c>
-      <c r="B534">
+      <c r="B534" s="1">
         <v>7.5971916615576229E-2</v>
       </c>
-      <c r="C534">
+      <c r="C534" s="1">
         <v>76.29182789123719</v>
       </c>
-      <c r="D534">
+      <c r="D534" s="1">
         <v>72.550871434227574</v>
       </c>
-      <c r="E534">
+      <c r="E534" s="1">
         <v>3.740956457009613</v>
       </c>
-      <c r="F534">
-        <v>5.0800000000000003E-3</v>
-      </c>
-      <c r="G534">
-        <v>2</v>
-      </c>
-      <c r="H534">
-        <v>2</v>
-      </c>
-      <c r="I534">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A535">
+      <c r="F534" s="1">
+        <v>5.0800000000000003E-3</v>
+      </c>
+      <c r="G534" s="1">
+        <v>2</v>
+      </c>
+      <c r="H534" s="1">
+        <v>2</v>
+      </c>
+      <c r="I534" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A535" s="1">
         <v>423.33333333333348</v>
       </c>
-      <c r="B535">
+      <c r="B535" s="1">
         <v>6.9619595815321955E-2</v>
       </c>
-      <c r="C535">
+      <c r="C535" s="1">
         <v>70.180429976980747</v>
       </c>
-      <c r="D535">
+      <c r="D535" s="1">
         <v>66.439473519971145</v>
       </c>
-      <c r="E535">
+      <c r="E535" s="1">
         <v>3.740956457009613</v>
       </c>
-      <c r="F535">
-        <v>6.3E-3</v>
-      </c>
-      <c r="G535">
-        <v>2</v>
-      </c>
-      <c r="H535">
-        <v>2</v>
-      </c>
-      <c r="I535">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A536">
+      <c r="F535" s="1">
+        <v>6.3E-3</v>
+      </c>
+      <c r="G535" s="1">
+        <v>2</v>
+      </c>
+      <c r="H535" s="1">
+        <v>2</v>
+      </c>
+      <c r="I535" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A536" s="1">
         <v>423.33333333333348</v>
       </c>
-      <c r="B536">
+      <c r="B536" s="1">
         <v>9.8065788885225214E-2</v>
       </c>
-      <c r="C536">
+      <c r="C536" s="1">
         <v>99.207796781450071</v>
       </c>
-      <c r="D536">
+      <c r="D536" s="1">
         <v>93.596362095935632</v>
       </c>
-      <c r="E536">
+      <c r="E536" s="1">
         <v>5.6114346855144186</v>
       </c>
-      <c r="F536">
-        <v>5.0800000000000003E-3</v>
-      </c>
-      <c r="G536">
+      <c r="F536" s="1">
+        <v>5.0800000000000003E-3</v>
+      </c>
+      <c r="G536" s="1">
         <v>3</v>
       </c>
-      <c r="H536">
-        <v>2</v>
-      </c>
-      <c r="I536">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A537">
+      <c r="H536" s="1">
+        <v>2</v>
+      </c>
+      <c r="I536" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A537" s="1">
         <v>423.33333333333348</v>
       </c>
-      <c r="B537">
+      <c r="B537" s="1">
         <v>9.0269760275236033E-2</v>
       </c>
-      <c r="C537">
+      <c r="C537" s="1">
         <v>92.652243847794296</v>
       </c>
-      <c r="D537">
+      <c r="D537" s="1">
         <v>87.040809162279871</v>
       </c>
-      <c r="E537">
+      <c r="E537" s="1">
         <v>5.6114346855144186</v>
       </c>
-      <c r="F537">
-        <v>6.3E-3</v>
-      </c>
-      <c r="G537">
+      <c r="F537" s="1">
+        <v>6.3E-3</v>
+      </c>
+      <c r="G537" s="1">
         <v>3</v>
       </c>
-      <c r="H537">
-        <v>2</v>
-      </c>
-      <c r="I537">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A538">
+      <c r="H537" s="1">
+        <v>2</v>
+      </c>
+      <c r="I537" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A538" s="1">
         <v>423.33333333333348</v>
       </c>
-      <c r="B538">
+      <c r="B538" s="1">
         <v>4.4508227303412751E-2</v>
       </c>
-      <c r="C538">
+      <c r="C538" s="1">
         <v>66.096067877053926</v>
       </c>
-      <c r="D538">
+      <c r="D538" s="1">
         <v>63.1822641807751</v>
       </c>
-      <c r="E538">
+      <c r="E538" s="1">
         <v>2.9138036962788272</v>
       </c>
-      <c r="F538">
+      <c r="F538" s="1">
         <v>3.1749999999999999E-3</v>
       </c>
-      <c r="G538">
-        <v>4</v>
-      </c>
-      <c r="H538">
+      <c r="G538" s="1">
+        <v>4</v>
+      </c>
+      <c r="H538" s="1">
         <v>1</v>
       </c>
-      <c r="I538">
+      <c r="I538" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A539">
+    <row r="539" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A539" s="1">
         <v>423.33333333333348</v>
       </c>
-      <c r="B539">
+      <c r="B539" s="1">
         <v>4.407334494871129E-2</v>
       </c>
-      <c r="C539">
+      <c r="C539" s="1">
         <v>64.618075277927773</v>
       </c>
-      <c r="D539">
+      <c r="D539" s="1">
         <v>61.207979925210481</v>
       </c>
-      <c r="E539">
+      <c r="E539" s="1">
         <v>3.4100953527172981</v>
       </c>
-      <c r="F539">
+      <c r="F539" s="1">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="G539">
-        <v>4</v>
-      </c>
-      <c r="H539">
+      <c r="G539" s="1">
+        <v>4</v>
+      </c>
+      <c r="H539" s="1">
         <v>1</v>
       </c>
-      <c r="I539">
+      <c r="I539" s="1">
         <v>0.64999999999999991</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A540">
+    <row r="540" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A540" s="1">
         <v>423.33333333333348</v>
       </c>
-      <c r="B540">
+      <c r="B540" s="1">
         <v>0.1148316811808123</v>
       </c>
-      <c r="C540">
+      <c r="C540" s="1">
         <v>127.56439549651451</v>
       </c>
-      <c r="D540">
+      <c r="D540" s="1">
         <v>120.0824825824952</v>
       </c>
-      <c r="E540">
+      <c r="E540" s="1">
         <v>7.481912914019226</v>
       </c>
-      <c r="F540">
+      <c r="F540" s="1">
         <v>3.1749999999999999E-3</v>
       </c>
-      <c r="G540">
-        <v>4</v>
-      </c>
-      <c r="H540">
-        <v>2</v>
-      </c>
-      <c r="I540">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A541">
+      <c r="G540" s="1">
+        <v>4</v>
+      </c>
+      <c r="H540" s="1">
+        <v>2</v>
+      </c>
+      <c r="I540" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A541" s="1">
         <v>423.33333333333348</v>
       </c>
-      <c r="B541">
+      <c r="B541" s="1">
         <v>0.11281108154970471</v>
       </c>
-      <c r="C541">
+      <c r="C541" s="1">
         <v>115.1209776936353</v>
       </c>
-      <c r="D541">
+      <c r="D541" s="1">
         <v>107.63906477961611</v>
       </c>
-      <c r="E541">
+      <c r="E541" s="1">
         <v>7.481912914019226</v>
       </c>
-      <c r="F541">
-        <v>5.0800000000000003E-3</v>
-      </c>
-      <c r="G541">
-        <v>4</v>
-      </c>
-      <c r="H541">
-        <v>2</v>
-      </c>
-      <c r="I541">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A542">
+      <c r="F541" s="1">
+        <v>5.0800000000000003E-3</v>
+      </c>
+      <c r="G541" s="1">
+        <v>4</v>
+      </c>
+      <c r="H541" s="1">
+        <v>2</v>
+      </c>
+      <c r="I541" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A542" s="1">
         <v>423.33333333333348</v>
       </c>
-      <c r="B542">
+      <c r="B542" s="1">
         <v>0.1048650921441913</v>
       </c>
-      <c r="C542">
+      <c r="C542" s="1">
         <v>109.2983512883972</v>
       </c>
-      <c r="D542">
+      <c r="D542" s="1">
         <v>101.8164383743779</v>
       </c>
-      <c r="E542">
+      <c r="E542" s="1">
         <v>7.481912914019226</v>
       </c>
-      <c r="F542">
-        <v>6.3E-3</v>
-      </c>
-      <c r="G542">
-        <v>4</v>
-      </c>
-      <c r="H542">
-        <v>2</v>
-      </c>
-      <c r="I542">
+      <c r="F542" s="1">
+        <v>6.3E-3</v>
+      </c>
+      <c r="G542" s="1">
+        <v>4</v>
+      </c>
+      <c r="H542" s="1">
+        <v>2</v>
+      </c>
+      <c r="I542" s="1">
         <v>0.75</v>
       </c>
     </row>
@@ -16174,7 +17131,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>426.66666666666691</v>
       </c>
@@ -16203,7 +17160,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>426.66666666666691</v>
       </c>
@@ -16232,7 +17189,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>426.66666666666691</v>
       </c>
@@ -16261,7 +17218,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>426.66666666666691</v>
       </c>
@@ -16290,7 +17247,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>426.66666666666691</v>
       </c>
@@ -16319,7 +17276,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>426.66666666666691</v>
       </c>
@@ -16348,7 +17305,7 @@
         <v>0.64999999999999991</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>426.66666666666691</v>
       </c>
@@ -16377,7 +17334,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>426.66666666666691</v>
       </c>
@@ -16406,7 +17363,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>426.66666666666691</v>
       </c>
@@ -16435,322 +17392,326 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A554">
+    <row r="554" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A554" s="1">
         <v>430.00000000000023</v>
       </c>
-      <c r="B554">
+      <c r="B554" s="1">
         <v>4.3342709172603973E-2</v>
       </c>
-      <c r="C554">
+      <c r="C554" s="1">
         <v>44.513579112834101</v>
       </c>
-      <c r="D554">
+      <c r="D554" s="1">
         <v>42.561539212102588</v>
       </c>
-      <c r="E554">
+      <c r="E554" s="1">
         <v>1.952039900731505</v>
       </c>
-      <c r="F554">
-        <v>5.0800000000000003E-3</v>
-      </c>
-      <c r="G554">
+      <c r="F554" s="1">
+        <v>5.0800000000000003E-3</v>
+      </c>
+      <c r="G554" s="1">
         <v>1</v>
       </c>
-      <c r="H554">
-        <v>2</v>
-      </c>
-      <c r="I554">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A555">
+      <c r="H554" s="1">
+        <v>2</v>
+      </c>
+      <c r="I554" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="555" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A555" s="1">
         <v>430.00000000000023</v>
       </c>
-      <c r="B555">
+      <c r="B555" s="1">
         <v>4.0096374158582797E-2</v>
       </c>
-      <c r="C555">
+      <c r="C555" s="1">
         <v>40.389838076208733</v>
       </c>
-      <c r="D555">
+      <c r="D555" s="1">
         <v>38.437798175477219</v>
       </c>
-      <c r="E555">
+      <c r="E555" s="1">
         <v>1.952039900731505</v>
       </c>
-      <c r="F555">
-        <v>6.3E-3</v>
-      </c>
-      <c r="G555">
+      <c r="F555" s="1">
+        <v>6.3E-3</v>
+      </c>
+      <c r="G555" s="1">
         <v>1</v>
       </c>
-      <c r="H555">
-        <v>2</v>
-      </c>
-      <c r="I555">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A556">
+      <c r="H555" s="1">
+        <v>2</v>
+      </c>
+      <c r="I555" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="556" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A556" s="1">
         <v>430.00000000000023</v>
       </c>
-      <c r="B556">
+      <c r="B556" s="1">
         <v>7.4921937227355295E-2</v>
       </c>
-      <c r="C556">
+      <c r="C556" s="1">
         <v>76.454951235690586</v>
       </c>
-      <c r="D556">
+      <c r="D556" s="1">
         <v>72.550871434227574</v>
       </c>
-      <c r="E556">
+      <c r="E556" s="1">
         <v>3.90407980146301</v>
       </c>
-      <c r="F556">
-        <v>5.0800000000000003E-3</v>
-      </c>
-      <c r="G556">
-        <v>2</v>
-      </c>
-      <c r="H556">
-        <v>2</v>
-      </c>
-      <c r="I556">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A557">
+      <c r="F556" s="1">
+        <v>5.0800000000000003E-3</v>
+      </c>
+      <c r="G556" s="1">
+        <v>2</v>
+      </c>
+      <c r="H556" s="1">
+        <v>2</v>
+      </c>
+      <c r="I556" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="O556" s="1">
+        <f>3100/(8*4*645/3600*4100)</f>
+        <v>0.13187748156551332</v>
+      </c>
+    </row>
+    <row r="557" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A557" s="1">
         <v>430.00000000000023</v>
       </c>
-      <c r="B557">
+      <c r="B557" s="1">
         <v>6.8647872407426647E-2</v>
       </c>
-      <c r="C557">
+      <c r="C557" s="1">
         <v>70.343553321434158</v>
       </c>
-      <c r="D557">
+      <c r="D557" s="1">
         <v>66.439473519971145</v>
       </c>
-      <c r="E557">
+      <c r="E557" s="1">
         <v>3.90407980146301</v>
       </c>
-      <c r="F557">
-        <v>6.3E-3</v>
-      </c>
-      <c r="G557">
-        <v>2</v>
-      </c>
-      <c r="H557">
-        <v>2</v>
-      </c>
-      <c r="I557">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A558">
+      <c r="F557" s="1">
+        <v>6.3E-3</v>
+      </c>
+      <c r="G557" s="1">
+        <v>2</v>
+      </c>
+      <c r="H557" s="1">
+        <v>2</v>
+      </c>
+      <c r="I557" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="558" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A558" s="1">
         <v>430.00000000000023</v>
       </c>
-      <c r="B558">
+      <c r="B558" s="1">
         <v>9.6709401579074594E-2</v>
       </c>
-      <c r="C558">
+      <c r="C558" s="1">
         <v>99.452481798130151</v>
       </c>
-      <c r="D558">
+      <c r="D558" s="1">
         <v>93.596362095935632</v>
       </c>
-      <c r="E558">
+      <c r="E558" s="1">
         <v>5.8561197021945146</v>
       </c>
-      <c r="F558">
-        <v>5.0800000000000003E-3</v>
-      </c>
-      <c r="G558">
+      <c r="F558" s="1">
+        <v>5.0800000000000003E-3</v>
+      </c>
+      <c r="G558" s="1">
         <v>3</v>
       </c>
-      <c r="H558">
-        <v>2</v>
-      </c>
-      <c r="I558">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A559">
+      <c r="H558" s="1">
+        <v>2</v>
+      </c>
+      <c r="I558" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="559" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A559" s="1">
         <v>430.00000000000023</v>
       </c>
-      <c r="B559">
+      <c r="B559" s="1">
         <v>8.9010248462087715E-2</v>
       </c>
-      <c r="C559">
+      <c r="C559" s="1">
         <v>92.89692886447439</v>
       </c>
-      <c r="D559">
+      <c r="D559" s="1">
         <v>87.040809162279871</v>
       </c>
-      <c r="E559">
+      <c r="E559" s="1">
         <v>5.8561197021945146</v>
       </c>
-      <c r="F559">
-        <v>6.3E-3</v>
-      </c>
-      <c r="G559">
+      <c r="F559" s="1">
+        <v>6.3E-3</v>
+      </c>
+      <c r="G559" s="1">
         <v>3</v>
       </c>
-      <c r="H559">
-        <v>2</v>
-      </c>
-      <c r="I559">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A560">
+      <c r="H559" s="1">
+        <v>2</v>
+      </c>
+      <c r="I559" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="560" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A560" s="1">
         <v>430.00000000000023</v>
       </c>
-      <c r="B560">
+      <c r="B560" s="1">
         <v>4.3871968861225352E-2</v>
       </c>
-      <c r="C560">
+      <c r="C560" s="1">
         <v>66.223123460159428</v>
       </c>
-      <c r="D560">
+      <c r="D560" s="1">
         <v>63.1822641807751</v>
       </c>
-      <c r="E560">
+      <c r="E560" s="1">
         <v>3.040859279384335</v>
       </c>
-      <c r="F560">
+      <c r="F560" s="1">
         <v>3.1749999999999999E-3</v>
       </c>
-      <c r="G560">
-        <v>4</v>
-      </c>
-      <c r="H560">
+      <c r="G560" s="1">
+        <v>4</v>
+      </c>
+      <c r="H560" s="1">
         <v>1</v>
       </c>
-      <c r="I560">
+      <c r="I560" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A561">
+    <row r="561" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A561" s="1">
         <v>430.00000000000023</v>
       </c>
-      <c r="B561">
+      <c r="B561" s="1">
         <v>4.3433445021356043E-2</v>
       </c>
-      <c r="C561">
+      <c r="C561" s="1">
         <v>64.766771517842017</v>
       </c>
-      <c r="D561">
+      <c r="D561" s="1">
         <v>61.207979925210481</v>
       </c>
-      <c r="E561">
+      <c r="E561" s="1">
         <v>3.5587915926315401</v>
       </c>
-      <c r="F561">
+      <c r="F561" s="1">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="G561">
-        <v>4</v>
-      </c>
-      <c r="H561">
+      <c r="G561" s="1">
+        <v>4</v>
+      </c>
+      <c r="H561" s="1">
         <v>1</v>
       </c>
-      <c r="I561">
+      <c r="I561" s="1">
         <v>0.64999999999999991</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A562">
+    <row r="562" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A562" s="1">
         <v>430.00000000000023</v>
       </c>
-      <c r="B562">
+      <c r="B562" s="1">
         <v>0.113233598367494</v>
       </c>
-      <c r="C562">
+      <c r="C562" s="1">
         <v>127.8906421854213</v>
       </c>
-      <c r="D562">
+      <c r="D562" s="1">
         <v>120.0824825824952</v>
       </c>
-      <c r="E562">
+      <c r="E562" s="1">
         <v>7.8081596029260201</v>
       </c>
-      <c r="F562">
+      <c r="F562" s="1">
         <v>3.1749999999999999E-3</v>
       </c>
-      <c r="G562">
-        <v>4</v>
-      </c>
-      <c r="H562">
-        <v>2</v>
-      </c>
-      <c r="I562">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A563">
+      <c r="G562" s="1">
+        <v>4</v>
+      </c>
+      <c r="H562" s="1">
+        <v>2</v>
+      </c>
+      <c r="I562" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="563" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A563" s="1">
         <v>430.00000000000023</v>
       </c>
-      <c r="B563">
+      <c r="B563" s="1">
         <v>0.1112441702307345</v>
       </c>
-      <c r="C563">
+      <c r="C563" s="1">
         <v>115.4472243825421</v>
       </c>
-      <c r="D563">
+      <c r="D563" s="1">
         <v>107.63906477961611</v>
       </c>
-      <c r="E563">
+      <c r="E563" s="1">
         <v>7.8081596029260201</v>
       </c>
-      <c r="F563">
-        <v>5.0800000000000003E-3</v>
-      </c>
-      <c r="G563">
-        <v>4</v>
-      </c>
-      <c r="H563">
-        <v>2</v>
-      </c>
-      <c r="I563">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A564">
+      <c r="F563" s="1">
+        <v>5.0800000000000003E-3</v>
+      </c>
+      <c r="G563" s="1">
+        <v>4</v>
+      </c>
+      <c r="H563" s="1">
+        <v>2</v>
+      </c>
+      <c r="I563" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="564" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A564" s="1">
         <v>430.00000000000023</v>
       </c>
-      <c r="B564">
+      <c r="B564" s="1">
         <v>0.1033991538091739</v>
       </c>
-      <c r="C564">
+      <c r="C564" s="1">
         <v>109.62459797730401</v>
       </c>
-      <c r="D564">
+      <c r="D564" s="1">
         <v>101.8164383743779</v>
       </c>
-      <c r="E564">
+      <c r="E564" s="1">
         <v>7.8081596029260201</v>
       </c>
-      <c r="F564">
-        <v>6.3E-3</v>
-      </c>
-      <c r="G564">
-        <v>4</v>
-      </c>
-      <c r="H564">
-        <v>2</v>
-      </c>
-      <c r="I564">
+      <c r="F564" s="1">
+        <v>6.3E-3</v>
+      </c>
+      <c r="G564" s="1">
+        <v>4</v>
+      </c>
+      <c r="H564" s="1">
+        <v>2</v>
+      </c>
+      <c r="I564" s="1">
         <v>0.75</v>
       </c>
     </row>
@@ -56660,5 +57621,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>